--- a/Raw Data/document_details.xlsx
+++ b/Raw Data/document_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eytan.chamovitz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97B0F9F-B704-714B-B5C9-314BE559BA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062B1E48-3DA8-534F-9141-A558FDC0115E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{4939D149-CFBC-8A4E-B6F3-88AC08A9EFDB}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4939D149-CFBC-8A4E-B6F3-88AC08A9EFDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>doc_title</t>
   </si>
@@ -921,6 +921,49 @@
   </si>
   <si>
     <t>https://adaptit.co.il/</t>
+  </si>
+  <si>
+    <t>https://www.gov.il/en/departments/moj_disability_rights/govil-landing-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel Minitry of Justice - Commission for Equal Rights of Persons with Disabilities </t>
+  </si>
+  <si>
+    <t>Joint Israel; Israel Ministry of Wellfare and Social Affairs; IDF Home Front Command</t>
+  </si>
+  <si>
+    <t>https://www.thejoint.org.il/en ; https://www.gov.il/en/departments/molsa/govil-landing-page ; https://www.oref.org.il/en</t>
+  </si>
+  <si>
+    <t>The State Comptroller and Ombudsman of Israel</t>
+  </si>
+  <si>
+    <t>https://www.mevaker.gov.il/En/Ombudsman/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADRABA The Shirley Lowy Center for Children and Youth with Disabilities
+ADRABA  – The Shirley Lowy Center for Children &amp; Youth with Disabilities ; Masorati Foundation</t>
+  </si>
+  <si>
+    <t>https://masorti.org/adraba/</t>
+  </si>
+  <si>
+    <t>https://main.knesset.gov.il/EN/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>The Knesset</t>
+  </si>
+  <si>
+    <t>IACC - Israel Association of Community Centers Ltd - Eilat</t>
+  </si>
+  <si>
+    <t>https://www.eilatmatnasim.org.il/</t>
+  </si>
+  <si>
+    <t>Kan11 - Israeli Public Broadcasting Corporation (IPBC)</t>
+  </si>
+  <si>
+    <t>https://www.kan.org.il/</t>
   </si>
 </sst>
 </file>
@@ -975,10 +1018,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1296,7 +1340,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,8 +1373,14 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" t="s">
         <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1340,8 +1390,14 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" t="s">
         <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1351,8 +1407,14 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
       <c r="C4" t="s">
         <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1362,8 +1424,14 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1373,8 +1441,14 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" t="s">
         <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1384,8 +1458,14 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" t="s">
         <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1395,8 +1475,14 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" t="s">
         <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1406,8 +1492,14 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" t="s">
         <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1417,8 +1509,14 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" t="s">
         <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -1439,8 +1537,14 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
       <c r="C12" t="s">
         <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
